--- a/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
@@ -413,14 +413,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C2">
-        <v>7.55711454</v>
+        <v>8.299147853179999</v>
       </c>
       <c r="D2">
-        <v>0.4766012539783915</v>
+        <v>0.5233987460216084</v>
       </c>
     </row>
     <row r="3">
@@ -429,14 +429,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C3">
-        <v>8.299147853179999</v>
+        <v>7.55711454</v>
       </c>
       <c r="D3">
-        <v>0.5233987460216084</v>
+        <v>0.4766012539783915</v>
       </c>
     </row>
     <row r="4">
@@ -445,14 +445,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C4">
-        <v>7.877982577</v>
+        <v>7.79997518054</v>
       </c>
       <c r="D4">
-        <v>0.5024878047787341</v>
+        <v>0.4975121952212658</v>
       </c>
     </row>
     <row r="5">
@@ -461,14 +461,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C5">
-        <v>7.79997518054</v>
+        <v>7.877982577</v>
       </c>
       <c r="D5">
-        <v>0.4975121952212658</v>
+        <v>0.5024878047787341</v>
       </c>
     </row>
     <row r="6">
@@ -477,14 +477,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C6">
-        <v>7.932527668</v>
+        <v>8.02152307075</v>
       </c>
       <c r="D6">
-        <v>0.4972108837997536</v>
+        <v>0.5027891162002464</v>
       </c>
     </row>
     <row r="7">
@@ -493,14 +493,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C7">
-        <v>8.02152307075</v>
+        <v>7.932527668</v>
       </c>
       <c r="D7">
-        <v>0.5027891162002464</v>
+        <v>0.4972108837997536</v>
       </c>
     </row>
     <row r="8">
@@ -509,14 +509,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C8">
-        <v>8.388406523</v>
+        <v>9.90285236858</v>
       </c>
       <c r="D8">
-        <v>0.4586019241606945</v>
+        <v>0.5413980758393054</v>
       </c>
     </row>
     <row r="9">
@@ -525,14 +525,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C9">
-        <v>9.90285236858</v>
+        <v>8.388406523</v>
       </c>
       <c r="D9">
-        <v>0.5413980758393054</v>
+        <v>0.4586019241606945</v>
       </c>
     </row>
     <row r="10">
@@ -541,14 +541,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C10">
-        <v>8.5079643991</v>
+        <v>10.61864425793</v>
       </c>
       <c r="D10">
-        <v>0.4448234682719297</v>
+        <v>0.5551765317280704</v>
       </c>
     </row>
     <row r="11">
@@ -557,14 +557,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C11">
-        <v>10.61864425793</v>
+        <v>8.5079643991</v>
       </c>
       <c r="D11">
-        <v>0.5551765317280704</v>
+        <v>0.4448234682719297</v>
       </c>
     </row>
     <row r="12">
@@ -573,14 +573,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C12">
-        <v>9.038544571999999</v>
+        <v>12.45435023027</v>
       </c>
       <c r="D12">
-        <v>0.420536398430861</v>
+        <v>0.5794636015691389</v>
       </c>
     </row>
     <row r="13">
@@ -589,14 +589,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C13">
-        <v>12.45435023027</v>
+        <v>9.038544571999999</v>
       </c>
       <c r="D13">
-        <v>0.5794636015691389</v>
+        <v>0.420536398430861</v>
       </c>
     </row>
     <row r="14">
@@ -605,14 +605,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C14">
-        <v>10.412162897</v>
+        <v>12.68302143277</v>
       </c>
       <c r="D14">
-        <v>0.4508369687952039</v>
+        <v>0.549163031204796</v>
       </c>
     </row>
     <row r="15">
@@ -621,14 +621,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C15">
-        <v>12.68302143277</v>
+        <v>10.412162897</v>
       </c>
       <c r="D15">
-        <v>0.549163031204796</v>
+        <v>0.4508369687952039</v>
       </c>
     </row>
     <row r="16">
@@ -637,14 +637,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C16">
-        <v>10.226221785</v>
+        <v>13.04194515195</v>
       </c>
       <c r="D16">
-        <v>0.4394940870378875</v>
+        <v>0.5605059129621125</v>
       </c>
     </row>
     <row r="17">
@@ -653,14 +653,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C17">
-        <v>13.04194515195</v>
+        <v>10.226221785</v>
       </c>
       <c r="D17">
-        <v>0.5605059129621125</v>
+        <v>0.4394940870378875</v>
       </c>
     </row>
     <row r="18">
@@ -669,14 +669,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C18">
-        <v>10.122178889</v>
+        <v>15.36871082048</v>
       </c>
       <c r="D18">
-        <v>0.3970900586194756</v>
+        <v>0.6029099413805245</v>
       </c>
     </row>
     <row r="19">
@@ -685,14 +685,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C19">
-        <v>15.36871082048</v>
+        <v>10.122178889</v>
       </c>
       <c r="D19">
-        <v>0.6029099413805245</v>
+        <v>0.3970900586194756</v>
       </c>
     </row>
     <row r="20">
@@ -701,14 +701,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Prosentandel kjernestøtte</t>
+          <t xml:space="preserve"> Øremerket støtte</t>
         </is>
       </c>
       <c r="C20">
-        <v>10.776521956</v>
+        <v>20.96991452224</v>
       </c>
       <c r="D20">
-        <v>0.339456113866089</v>
+        <v>0.660543886133911</v>
       </c>
     </row>
     <row r="21">
@@ -717,14 +717,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Prosentandel øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C21">
-        <v>20.96991452224</v>
+        <v>10.776521956</v>
       </c>
       <c r="D21">
-        <v>0.660543886133911</v>
+        <v>0.339456113866089</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til multilaterale partnere -- kjernestøtte og øremerket støtte, 2014-2023. Prosentfordeling.</t>
+          <t>Arkfane Figurdata viser data for Bistand til multilaterale partnere -- kjernestøtte og øremerket støtte, 2015-2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -417,15 +417,15 @@
         </is>
       </c>
       <c r="C2">
-        <v>8.299147853179999</v>
+        <v>7.79997518054</v>
       </c>
       <c r="D2">
-        <v>0.5233987460216084</v>
+        <v>0.4975121952212658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -433,15 +433,15 @@
         </is>
       </c>
       <c r="C3">
-        <v>7.55711454</v>
+        <v>7.877982577</v>
       </c>
       <c r="D3">
-        <v>0.4766012539783915</v>
+        <v>0.5024878047787341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -449,15 +449,15 @@
         </is>
       </c>
       <c r="C4">
-        <v>7.79997518054</v>
+        <v>8.02152307075</v>
       </c>
       <c r="D4">
-        <v>0.4975121952212658</v>
+        <v>0.5027891162002464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="C5">
-        <v>7.877982577</v>
+        <v>7.932527668</v>
       </c>
       <c r="D5">
-        <v>0.5024878047787341</v>
+        <v>0.4972108837997536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -481,15 +481,15 @@
         </is>
       </c>
       <c r="C6">
-        <v>8.02152307075</v>
+        <v>9.90285236858</v>
       </c>
       <c r="D6">
-        <v>0.5027891162002464</v>
+        <v>0.5413980758393054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -497,15 +497,15 @@
         </is>
       </c>
       <c r="C7">
-        <v>7.932527668</v>
+        <v>8.388406523</v>
       </c>
       <c r="D7">
-        <v>0.4972108837997536</v>
+        <v>0.4586019241606945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -513,15 +513,15 @@
         </is>
       </c>
       <c r="C8">
-        <v>9.90285236858</v>
+        <v>10.61864425793</v>
       </c>
       <c r="D8">
-        <v>0.5413980758393054</v>
+        <v>0.5551765317280704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -529,15 +529,15 @@
         </is>
       </c>
       <c r="C9">
-        <v>8.388406523</v>
+        <v>8.5079643991</v>
       </c>
       <c r="D9">
-        <v>0.4586019241606945</v>
+        <v>0.4448234682719297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -545,15 +545,15 @@
         </is>
       </c>
       <c r="C10">
-        <v>10.61864425793</v>
+        <v>12.45435023027</v>
       </c>
       <c r="D10">
-        <v>0.5551765317280704</v>
+        <v>0.5794636015691389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -561,15 +561,15 @@
         </is>
       </c>
       <c r="C11">
-        <v>8.5079643991</v>
+        <v>9.038544571999999</v>
       </c>
       <c r="D11">
-        <v>0.4448234682719297</v>
+        <v>0.420536398430861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -577,15 +577,15 @@
         </is>
       </c>
       <c r="C12">
-        <v>12.45435023027</v>
+        <v>12.68302143277</v>
       </c>
       <c r="D12">
-        <v>0.5794636015691389</v>
+        <v>0.549163031204796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -593,15 +593,15 @@
         </is>
       </c>
       <c r="C13">
-        <v>9.038544571999999</v>
+        <v>10.412162897</v>
       </c>
       <c r="D13">
-        <v>0.420536398430861</v>
+        <v>0.4508369687952039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -609,15 +609,15 @@
         </is>
       </c>
       <c r="C14">
-        <v>12.68302143277</v>
+        <v>13.04194515195</v>
       </c>
       <c r="D14">
-        <v>0.549163031204796</v>
+        <v>0.5605059129621125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -625,15 +625,15 @@
         </is>
       </c>
       <c r="C15">
-        <v>10.412162897</v>
+        <v>10.226221785</v>
       </c>
       <c r="D15">
-        <v>0.4508369687952039</v>
+        <v>0.4394940870378875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -641,15 +641,15 @@
         </is>
       </c>
       <c r="C16">
-        <v>13.04194515195</v>
+        <v>15.36871082048</v>
       </c>
       <c r="D16">
-        <v>0.5605059129621125</v>
+        <v>0.6029099413805245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -657,15 +657,15 @@
         </is>
       </c>
       <c r="C17">
-        <v>10.226221785</v>
+        <v>10.122178889</v>
       </c>
       <c r="D17">
-        <v>0.4394940870378875</v>
+        <v>0.3970900586194756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -673,15 +673,15 @@
         </is>
       </c>
       <c r="C18">
-        <v>15.36871082048</v>
+        <v>20.96991452224</v>
       </c>
       <c r="D18">
-        <v>0.6029099413805245</v>
+        <v>0.660543886133911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -689,15 +689,15 @@
         </is>
       </c>
       <c r="C19">
-        <v>10.122178889</v>
+        <v>10.776521956</v>
       </c>
       <c r="D19">
-        <v>0.3970900586194756</v>
+        <v>0.339456113866089</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -705,15 +705,15 @@
         </is>
       </c>
       <c r="C20">
-        <v>20.96991452224</v>
+        <v>17.93714135314</v>
       </c>
       <c r="D20">
-        <v>0.660543886133911</v>
+        <v>0.6169606842489245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>10.776521956</v>
+        <v>11.136253129</v>
       </c>
       <c r="D21">
-        <v>0.339456113866089</v>
+        <v>0.3830393157510755</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,6 +406,11 @@
           <t>type_of_assistance_prop</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>label_lastyear</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -710,6 +715,11 @@
       <c r="D20">
         <v>0.6169606842489245</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -725,6 +735,11 @@
       </c>
       <c r="D21">
         <v>0.3830393157510755</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til multilaterale partnere -- kjernestøtte og øremerket støtte, 2015-2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til multilaterale partnere, fordelt på kjernestøtte og øremerket støtte. 2015-2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartnersassistancetype_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata inneholder data om norsk bistand til multilaterale partnere, fordelt på kjernestøtte og øremerket støtte. 2015-2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til multilaterale partnere, fordelt på kjernestøtte og øremerket støtte. 2015-2024. Prosentandel.</t>
         </is>
       </c>
     </row>
@@ -418,14 +418,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C2">
-        <v>7.79997518054</v>
+        <v>7.877982577</v>
       </c>
       <c r="D2">
-        <v>0.4975121952212658</v>
+        <v>0.5024878047787341</v>
       </c>
     </row>
     <row r="3">
@@ -434,14 +434,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C3">
-        <v>7.877982577</v>
+        <v>7.79997518054</v>
       </c>
       <c r="D3">
-        <v>0.5024878047787341</v>
+        <v>0.4975121952212658</v>
       </c>
     </row>
     <row r="4">
@@ -450,14 +450,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C4">
-        <v>8.02152307075</v>
+        <v>7.932527668</v>
       </c>
       <c r="D4">
-        <v>0.5027891162002464</v>
+        <v>0.4972108837997536</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C5">
-        <v>7.932527668</v>
+        <v>8.02152307075</v>
       </c>
       <c r="D5">
-        <v>0.4972108837997536</v>
+        <v>0.5027891162002464</v>
       </c>
     </row>
     <row r="6">
@@ -482,14 +482,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C6">
-        <v>9.90285236858</v>
+        <v>8.388406523</v>
       </c>
       <c r="D6">
-        <v>0.5413980758393054</v>
+        <v>0.4586019241606945</v>
       </c>
     </row>
     <row r="7">
@@ -498,14 +498,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C7">
-        <v>8.388406523</v>
+        <v>9.90285236858</v>
       </c>
       <c r="D7">
-        <v>0.4586019241606945</v>
+        <v>0.5413980758393054</v>
       </c>
     </row>
     <row r="8">
@@ -514,14 +514,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C8">
-        <v>10.61864425793</v>
+        <v>8.5079643991</v>
       </c>
       <c r="D8">
-        <v>0.5551765317280704</v>
+        <v>0.4448234682719297</v>
       </c>
     </row>
     <row r="9">
@@ -530,14 +530,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C9">
-        <v>8.5079643991</v>
+        <v>10.61864425793</v>
       </c>
       <c r="D9">
-        <v>0.4448234682719297</v>
+        <v>0.5551765317280704</v>
       </c>
     </row>
     <row r="10">
@@ -546,14 +546,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C10">
-        <v>12.45435023027</v>
+        <v>9.038544571999999</v>
       </c>
       <c r="D10">
-        <v>0.5794636015691389</v>
+        <v>0.420536398430861</v>
       </c>
     </row>
     <row r="11">
@@ -562,14 +562,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C11">
-        <v>9.038544571999999</v>
+        <v>12.45435023027</v>
       </c>
       <c r="D11">
-        <v>0.420536398430861</v>
+        <v>0.5794636015691389</v>
       </c>
     </row>
     <row r="12">
@@ -578,14 +578,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C12">
-        <v>12.68302143277</v>
+        <v>10.412162897</v>
       </c>
       <c r="D12">
-        <v>0.549163031204796</v>
+        <v>0.4508369687952039</v>
       </c>
     </row>
     <row r="13">
@@ -594,14 +594,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C13">
-        <v>10.412162897</v>
+        <v>12.68302143277</v>
       </c>
       <c r="D13">
-        <v>0.4508369687952039</v>
+        <v>0.549163031204796</v>
       </c>
     </row>
     <row r="14">
@@ -610,14 +610,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C14">
-        <v>13.04194515195</v>
+        <v>10.226221785</v>
       </c>
       <c r="D14">
-        <v>0.5605059129621125</v>
+        <v>0.4394940870378875</v>
       </c>
     </row>
     <row r="15">
@@ -626,14 +626,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C15">
-        <v>10.226221785</v>
+        <v>13.04194515195</v>
       </c>
       <c r="D15">
-        <v>0.4394940870378875</v>
+        <v>0.5605059129621125</v>
       </c>
     </row>
     <row r="16">
@@ -642,14 +642,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C16">
-        <v>15.36871082048</v>
+        <v>10.122178889</v>
       </c>
       <c r="D16">
-        <v>0.6029099413805245</v>
+        <v>0.3970900586194756</v>
       </c>
     </row>
     <row r="17">
@@ -658,14 +658,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C17">
-        <v>10.122178889</v>
+        <v>15.36871082048</v>
       </c>
       <c r="D17">
-        <v>0.3970900586194756</v>
+        <v>0.6029099413805245</v>
       </c>
     </row>
     <row r="18">
@@ -674,14 +674,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C18">
-        <v>20.96991452224</v>
+        <v>10.776521956</v>
       </c>
       <c r="D18">
-        <v>0.660543886133911</v>
+        <v>0.339456113866089</v>
       </c>
     </row>
     <row r="19">
@@ -690,14 +690,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C19">
-        <v>10.776521956</v>
+        <v>20.96991452224</v>
       </c>
       <c r="D19">
-        <v>0.339456113866089</v>
+        <v>0.660543886133911</v>
       </c>
     </row>
     <row r="20">
@@ -706,18 +706,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Øremerket støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C20">
-        <v>17.93714135314</v>
+        <v>11.136253129</v>
       </c>
       <c r="D20">
-        <v>0.6169606842489245</v>
+        <v>0.3830393157510755</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -727,18 +727,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket støtte</t>
         </is>
       </c>
       <c r="C21">
-        <v>11.136253129</v>
+        <v>17.93714135314</v>
       </c>
       <c r="D21">
-        <v>0.3830393157510755</v>
+        <v>0.6169606842489245</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>62</t>
         </is>
       </c>
     </row>
